--- a/tests/data/19880209/19880209_target_highlight_org.xlsx
+++ b/tests/data/19880209/19880209_target_highlight_org.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfd3df2fe22ca4a1/Workspace/consolidate_csv_to_excel/tests/data/19880209/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2286070D6F0A99EA6EA9A364023E2FDD54E10A7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{672CDE92-E03C-43D6-AE37-C6E55577F285}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_2286070D6F0A99EA6EA9A364023E2FDD54E10A7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41955D13-A9A9-436A-B3C0-947FF0BD6E08}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="2445" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8565" yWindow="3405" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="target_0" sheetId="1" r:id="rId1"/>
     <sheet name="target_1" sheetId="2" r:id="rId2"/>
     <sheet name="target_2" sheetId="3" r:id="rId3"/>
     <sheet name="target_3" sheetId="4" r:id="rId4"/>
-    <sheet name="no_csv" sheetId="5" r:id="rId5"/>
+    <sheet name="no_csv" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Date_A</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>INVALID</t>
+  </si>
+  <si>
+    <t>No CSV file found.</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E9FCA-A749-4080-9E46-08DD997DE7D8}">
   <sheetPr>
     <tabColor rgb="FF7F7F7F"/>
   </sheetPr>
@@ -588,8 +591,14 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>